--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,7 +265,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}o-lin-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-lin-req-2:The therapyLineNumber extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number').exists()}o-lin-req-3:The therapyLineIntent extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent').exists()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
@@ -448,7 +448,7 @@
     <t>therapyLinePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-period|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-period|0.2.0}
 </t>
   </si>
   <si>
@@ -468,7 +468,7 @@
     <t>therapyLineNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number|0.2.0}
 </t>
   </si>
   <si>
@@ -484,7 +484,7 @@
     <t>therapyLineIntent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent|0.2.0}
 </t>
   </si>
   <si>
@@ -500,7 +500,7 @@
     <t>therapyLineProgressionFreeSurvival</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-progression-free-survival|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-progression-free-survival|0.2.0}
 </t>
   </si>
   <si>
@@ -516,7 +516,7 @@
     <t>therapyLineProgressionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-progression-date|0.1.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-progression-date|0.2.0}
 </t>
   </si>
   <si>
@@ -696,7 +696,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -951,7 +951,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|0.1.0|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure|0.2.0)
 </t>
   </si>
   <si>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing a line of therapy in a cancer treatment regimen, including details about the therapy line number, associated treatments, and relevant dates. 
-Due to its abstract conceptual nature, it is based on a FHIR `List` to capture the specific resources involved in the therapy line. Therapy lines in Onconova are assigned automatically based on existing Procedure and MedicationAdministration resources and are not created manually.</t>
+    <t xml:space="preserve">A profile representing a line of therapy in a cancer treatment regimen, including details about the therapy line number, associated treatments, and relevant dates. 
+Due to its abstract conceptual nature, it is based on a FHIR `List` to capture the specific resources involved in the therapy line. Therapy lines in Onconova are assigned automatically based on existing Procedure and MedicationAdministration resources and are not created manually.
+**Conformance:**
+List resources representing a therapy line in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/List|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/List</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -448,7 +450,7 @@
     <t>therapyLinePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-period|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-period}
 </t>
   </si>
   <si>
@@ -468,7 +470,7 @@
     <t>therapyLineNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number}
 </t>
   </si>
   <si>
@@ -484,7 +486,7 @@
     <t>therapyLineIntent</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent}
 </t>
   </si>
   <si>
@@ -500,7 +502,7 @@
     <t>therapyLineProgressionFreeSurvival</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-progression-free-survival|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-progression-free-survival}
 </t>
   </si>
   <si>
@@ -516,7 +518,7 @@
     <t>therapyLineProgressionDate</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-progression-date|0.2.0}
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-progression-date}
 </t>
   </si>
   <si>
@@ -696,7 +698,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -951,7 +953,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|0.2.0|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure)
 </t>
   </si>
   <si>
@@ -1324,7 +1326,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="220.22265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="206.63671875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}o-lin-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-lin-req-2:The therapyLineNumber extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number').exists()}o-lin-req-3:The therapyLineIntent extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}o-lin-req-1:The subject element is required and must be provided. {subject.exists()}o-lin-req-2:The therapyLineNumber extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number').exists()}o-lin-req-3:The therapyLineIntent extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent').exists()}</t>
   </si>
   <si>
     <t>Act[classCode&lt;ORG,moodCode=EVN]</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$37</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="258">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,9 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">A profile representing a line of therapy in a cancer treatment regimen, including details about the therapy line number, associated treatments, and relevant dates. 
-Due to its abstract conceptual nature, it is based on a FHIR `List` to capture the specific resources involved in the therapy line. Therapy lines in Onconova are assigned automatically based on existing Procedure and MedicationAdministration resources and are not created manually.
+It is based on a FHIR `EpisodeOfCare` to capture the specific resources involved in the therapy line. Therapy lines in Onconova are assigned automatically based on existing `Procedure` and `MedicationAdministration` resources and are not usually created manually.
 **Conformance:**
-List resources representing a therapy line in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
+EpisodeOfCare resources representing a therapy line in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -111,13 +111,13 @@
     <t>Type</t>
   </si>
   <si>
-    <t>List</t>
+    <t>EpisodeOfCare</t>
   </si>
   <si>
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/List</t>
+    <t>http://hl7.org/fhir/StructureDefinition/EpisodeOfCare</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -240,14 +240,17 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Workflow Pattern</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
-    <t>Collection
-WorkingListOrganizer</t>
+    <t xml:space="preserve">Case Program Problem
+</t>
   </si>
   <si>
     <t>0</t>
@@ -260,20 +263,23 @@
 </t>
   </si>
   <si>
-    <t>A list is a curated collection of resources</t>
-  </si>
-  <si>
-    <t>A list is a curated collection of resources.</t>
+    <t>An association of a Patient with an Organization and  Healthcare Provider(s) for a period of time that the Organization assumes some level of responsibility</t>
+  </si>
+  <si>
+    <t>An association between a patient and an organization / healthcare provider(s) during which time encounters may occur. The managing organization assumes a level of responsibility for the patient during this time.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}lst-1:A list can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}lst-2:The deleted flag can only be used if the mode of the list is "changes" {mode = 'changes' or entry.deleted.empty()}lst-3:An entry date can only be used if the mode of the list is "working" {mode = 'working' or entry.date.empty()}o-lin-req-1:The subject element is required and must be provided. {subject.exists()}o-lin-req-2:The therapyLineNumber extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number').exists()}o-lin-req-3:The therapyLineIntent extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent').exists()}</t>
-  </si>
-  <si>
-    <t>Act[classCode&lt;ORG,moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>List.id</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-lin-req-1:The subject element is required and must be provided. {subject.exists()}o-lin-req-2:The period element is required and must be provided. {period.exists()}o-lin-req-3:The therapyLineNumber extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number').exists()}o-lin-req-4:The therapyLineIntent extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent').exists()}</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.id</t>
   </si>
   <si>
     <t>1</t>
@@ -298,7 +304,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>List.meta</t>
+    <t>EpisodeOfCare.meta</t>
   </si>
   <si>
     <t xml:space="preserve">Meta
@@ -318,7 +324,7 @@
 </t>
   </si>
   <si>
-    <t>List.implicitRules</t>
+    <t>EpisodeOfCare.implicitRules</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -337,7 +343,7 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>List.language</t>
+    <t>EpisodeOfCare.language</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -365,7 +371,7 @@
     <t>Resource.language</t>
   </si>
   <si>
-    <t>List.text</t>
+    <t>EpisodeOfCare.text</t>
   </si>
   <si>
     <t>narrative
@@ -391,7 +397,7 @@
     <t>Act.text?</t>
   </si>
   <si>
-    <t>List.contained</t>
+    <t>EpisodeOfCare.contained</t>
   </si>
   <si>
     <t>inline resources
@@ -417,7 +423,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>List.extension</t>
+    <t>EpisodeOfCare.extension</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -444,43 +450,27 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>List.extension:therapyLinePeriod</t>
-  </si>
-  <si>
-    <t>therapyLinePeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-period}
+    <t>EpisodeOfCare.extension:therapyLineNumber</t>
+  </si>
+  <si>
+    <t>therapyLineNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number}
 </t>
   </si>
   <si>
-    <t>The period during which the therapy line was performed</t>
-  </si>
-  <si>
-    <t>The period during which the therapy line was performed.</t>
+    <t>The number representing the sequence of the therapy line in the overall treatment regimen</t>
+  </si>
+  <si>
+    <t>The number representing the sequence of the therapy line in the overall treatment regimen.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>List.extension:therapyLineNumber</t>
-  </si>
-  <si>
-    <t>therapyLineNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number}
-</t>
-  </si>
-  <si>
-    <t>The number representing the sequence of the therapy line in the overall treatment regimen</t>
-  </si>
-  <si>
-    <t>The number representing the sequence of the therapy line in the overall treatment regimen.</t>
-  </si>
-  <si>
-    <t>List.extension:therapyLineIntent</t>
+    <t>EpisodeOfCare.extension:therapyLineIntent</t>
   </si>
   <si>
     <t>therapyLineIntent</t>
@@ -496,7 +486,7 @@
     <t>The intent of the therapy line, such as curative or palliative.</t>
   </si>
   <si>
-    <t>List.extension:therapyLineProgressionFreeSurvival</t>
+    <t>EpisodeOfCare.extension:therapyLineProgressionFreeSurvival</t>
   </si>
   <si>
     <t>therapyLineProgressionFreeSurvival</t>
@@ -512,7 +502,7 @@
     <t>The progression-free survival duration for the therapy line.</t>
   </si>
   <si>
-    <t>List.extension:therapyLineProgressionDate</t>
+    <t>EpisodeOfCare.extension:therapyLineProgressionDate</t>
   </si>
   <si>
     <t>therapyLineProgressionDate</t>
@@ -528,7 +518,7 @@
     <t>The date when disease progression was observed during or after the therapy line.</t>
   </si>
   <si>
-    <t>List.modifierExtension</t>
+    <t>EpisodeOfCare.modifierExtension</t>
   </si>
   <si>
     <t>extensions
@@ -551,124 +541,137 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
-    <t>List.identifier</t>
+    <t>EpisodeOfCare.identifier</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
-    <t>Business identifier</t>
-  </si>
-  <si>
-    <t>Identifier for the List assigned for business purposes outside the context of FHIR.</t>
-  </si>
-  <si>
-    <t>.id</t>
+    <t>Business Identifier(s) relevant for this EpisodeOfCare</t>
+  </si>
+  <si>
+    <t>The EpisodeOfCare may be known by different identifiers for different contexts of use, such as when an external agency is tracking the Episode for funding purposes.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
   </si>
   <si>
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>List.status</t>
-  </si>
-  <si>
-    <t>current | retired | entered-in-error</t>
-  </si>
-  <si>
-    <t>Indicates the current state of this list.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>current</t>
+    <t>EpisodeOfCare.status</t>
+  </si>
+  <si>
+    <t>Not used in this profile</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the episode as not currently valid.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The current state of the list.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-status|4.0.1</t>
-  </si>
-  <si>
-    <t>.status[current=active;retired=obsolete;entered-in-error=nullified]</t>
+    <t>The status of the episode of care.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/episode-of-care-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
   </si>
   <si>
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>List.mode</t>
-  </si>
-  <si>
-    <t>working | snapshot | changes</t>
-  </si>
-  <si>
-    <t>How this list was prepared - whether it is a working list that is suitable for being maintained on an ongoing basis, or if it represents a snapshot of a list of items from another source, or whether it is a prepared list where items may be marked as added, modified or deleted.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because a change list must not be misunderstood as a complete list.</t>
-  </si>
-  <si>
-    <t>Lists are used in various ways, and it must be known in what way it is safe to use them.</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>The processing mode that applies to this list.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-mode|4.0.1</t>
-  </si>
-  <si>
-    <t>.outBoundRelationship[typeCode=COMP].target[classCode=OBS"].value</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>List.title</t>
+    <t>EpisodeOfCare.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.statusHistory.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Descriptive name for the list</t>
-  </si>
-  <si>
-    <t>A label for the list assigned by the author.</t>
-  </si>
-  <si>
-    <t>Allows customization beyond just the code identifying the kind of list.</t>
-  </si>
-  <si>
-    <t>Dr. Jane's Patients</t>
-  </si>
-  <si>
-    <t>.title</t>
-  </si>
-  <si>
-    <t>List.code</t>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.statusHistory.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.statusHistory.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.statusHistory.status</t>
+  </si>
+  <si>
+    <t>planned | waitlist | active | onhold | finished | cancelled | entered-in-error</t>
+  </si>
+  <si>
+    <t>planned | waitlist | active | onhold | finished | cancelled.</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.statusHistory.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Duration the EpisodeOfCare was in the specified status</t>
+  </si>
+  <si>
+    <t>The period during this EpisodeOfCare that the specific status applied.</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>What the purpose of this list is</t>
-  </si>
-  <si>
-    <t>This code defines the purpose of the list - why it was created.</t>
-  </si>
-  <si>
-    <t>If there is no code, the purpose of the list is implied where it is used, such as in a document section using Document.section.code.</t>
-  </si>
-  <si>
-    <t>Lists often contain subsets of resources rather than an exhaustive list.  The code identifies what type of subset is included.</t>
+    <t>Type/class  - e.g. specialist referral, disease management</t>
+  </si>
+  <si>
+    <t>A classification of the type of episode of care; e.g. specialist referral, disease management, type of funded care.</t>
+  </si>
+  <si>
+    <t>The type can be very important in processing as this could be used in determining if the EpisodeOfCare is relevant to specific government reporting, or other types of classifications.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -683,19 +686,78 @@
     <t>example</t>
   </si>
   <si>
-    <t>What the purpose of a list is.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-example-codes|4.0.1</t>
-  </si>
-  <si>
-    <t>.code</t>
+    <t>The type of the episode of care.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/episodeofcare-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.id</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.extension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.modifierExtension</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Condition|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Conditions/problems/diagnoses this episode of care is for</t>
+  </si>
+  <si>
+    <t>A list of conditions/problems/diagnoses that this episode of care is intended to be providing care for.</t>
+  </si>
+  <si>
+    <t>Event.reasonReference</t>
   </si>
   <si>
     <t>FiveWs.what[x]</t>
   </si>
   <si>
-    <t>List.subject</t>
+    <t>EpisodeOfCare.diagnosis.role</t>
+  </si>
+  <si>
+    <t>Role that this diagnosis has within the episode of care (e.g. admission, billing, discharge …)</t>
+  </si>
+  <si>
+    <t>Role that this diagnosis has within the episode of care (e.g. admission, billing, discharge …).</t>
+  </si>
+  <si>
+    <t>The type of diagnosis this condition represents.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.diagnosis.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Ranking of the diagnosis (for each role type)</t>
+  </si>
+  <si>
+    <t>Ranking of the diagnosis (for each role type).</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.patient</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
@@ -705,289 +767,76 @@
     <t>The patient receiving the therapy</t>
   </si>
   <si>
-    <t>The common subject (or patient) of the resources that are in the list if there is one.</t>
-  </si>
-  <si>
-    <t>Some purely arbitrary lists do not have a common subject, so this is optional.</t>
-  </si>
-  <si>
-    <t>The primary purpose of listing the subject explicitly is to help with finding the right list.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode&lt;SUB].role (and sometimes .player)</t>
+    <t>The patient who is the focus of this episode of care.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
   </si>
   <si>
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>List.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t>EpisodeOfCare.managingOrganization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
-    <t>Not used in this profile</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>List.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
+    <t>Event.performer.actor</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.period</t>
+  </si>
+  <si>
+    <t>The period during which the therapy line was performed</t>
+  </si>
+  <si>
+    <t>The interval during which the managing organization assumes the defined responsibility.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>FiveWs.init</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.referralRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
-    <t>The actual important date is the date of currency of the resources that were summarized, but it is usually assumed that these are current when the preparation occurs.</t>
-  </si>
-  <si>
-    <t>Identifies how current the list is which affects relevance.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode&lt;AUT].time[type=TS]</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>List.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>EpisodeOfCare.careManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|Device|4.0.1)
+    <t>EpisodeOfCare.team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CareTeam
 </t>
   </si>
   <si>
-    <t>The primary source is the entity that made the decisions what items are in the list. This may be software or user.</t>
-  </si>
-  <si>
-    <t>Allows follow-up as well as context.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>List.orderedBy</t>
-  </si>
-  <si>
-    <t>What order the list has</t>
-  </si>
-  <si>
-    <t>What order applies to the items in the list.</t>
-  </si>
-  <si>
-    <t>Applications SHOULD render ordered lists in the order provided, but MAY allow users to re-order based on their own preferences as well. If there is no order specified, the order is unknown, though there may still be some order.</t>
-  </si>
-  <si>
-    <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries.</t>
-  </si>
-  <si>
-    <t>What order applies to the items in a list.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
-  </si>
-  <si>
-    <t>List.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Reference(CareTeam|4.0.1)
 </t>
   </si>
   <si>
-    <t>Comments about the list</t>
-  </si>
-  <si>
-    <t>Comments that apply to the overall list.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ].act.text</t>
-  </si>
-  <si>
-    <t>List.entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
+    <t>EpisodeOfCare.account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
-    <t>The therapies or procedures that are part of this therapy line</t>
-  </si>
-  <si>
-    <t>Entries in this list.</t>
-  </si>
-  <si>
-    <t>If there are no entries in the list, an emptyReason SHOULD be provided.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lst-1
-</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
-  </si>
-  <si>
-    <t>List.entry.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>List.entry.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>List.entry.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>List.entry.flag</t>
-  </si>
-  <si>
-    <t>Status/Workflow information about this item</t>
-  </si>
-  <si>
-    <t>The flag allows the system constructing the list to indicate the role and significance of the item in the list.</t>
-  </si>
-  <si>
-    <t>The flag can only be understood in the context of the List.code. If the flag means that the entry has actually been deleted from the list, the deleted element SHALL be true. Deleted can only be used if the List.mode is "changes".</t>
-  </si>
-  <si>
-    <t>This field is present to support various clinical uses of lists, such as a discharge summary medication list, where flags specify whether the medication was added, modified, or deleted from the list.</t>
-  </si>
-  <si>
-    <t>Codes that provide further information about the reason and meaning of the item in the list.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-item-flag|4.0.1</t>
-  </si>
-  <si>
-    <t>List.entry.deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this item is actually marked as deleted</t>
-  </si>
-  <si>
-    <t>True if this item is marked as deleted in the list.</t>
-  </si>
-  <si>
-    <t>If the flag means that the entry has actually been deleted from the list, the deleted element SHALL be true. Both flag and deleted can only be used if the List.mode is "changes". A deleted entry should be displayed in narrative as deleted.  This element is labeled as a modifier because it indicates that an item is (to be) no longer in the list.</t>
-  </si>
-  <si>
-    <t>The flag element may contain codes that an application processing the list does not understand. However there can be no ambiguity if a list item is actually marked as "deleted".</t>
-  </si>
-  <si>
-    <t>List items are generally only treated as deleted when this element explicitly carries a value of true. Systems SHOULD always populate this value when mode is 'changes'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lst-2
-</t>
-  </si>
-  <si>
-    <t>added: .updateMode=("A","AR")  retained: .updateMode="NC"  updated: .updateMode="R"  deleted: .updateMode="D"</t>
-  </si>
-  <si>
-    <t>List.entry.date</t>
-  </si>
-  <si>
-    <t>When item added to list</t>
-  </si>
-  <si>
-    <t>When this item was added to the list.</t>
-  </si>
-  <si>
-    <t>The date may be significant for understanding the meaning of items in a working list.</t>
-  </si>
-  <si>
-    <t>.availabilityTime</t>
-  </si>
-  <si>
-    <t>List.entry.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-medication-administration|http://onconova.github.io/fhir/StructureDefinition/onconova-radiotherapy-summary|http://onconova.github.io/fhir/StructureDefinition/onconova-surgical-procedure)
-</t>
-  </si>
-  <si>
-    <t>Actual entry</t>
-  </si>
-  <si>
-    <t>A reference to the actual resource from which data was derived.</t>
-  </si>
-  <si>
-    <t>.target or .role or .role.entity</t>
-  </si>
-  <si>
-    <t>List.emptyReason</t>
-  </si>
-  <si>
-    <t>Why list is empty</t>
-  </si>
-  <si>
-    <t>If the list is empty, why the list is empty.</t>
-  </si>
-  <si>
-    <t>The various reasons for an empty list make a significant interpretation to its interpretation. Note that this code is for use when the entire list has been suppressed, and not for when individual items are omitted - implementers may consider using a text note or a flag on an entry in these cases.</t>
-  </si>
-  <si>
-    <t>Allows capturing things like "none exist" or "not asked" which can be important for most lists.</t>
-  </si>
-  <si>
-    <t>If a list is empty, why it is empty.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
+    <t>The billing system may choose to allocate billable items associated with the EpisodeOfCare to different referenced Accounts based on internal business rules.</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1156,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL35"/>
+  <dimension ref="A1:AM37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1316,8 +1165,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.7734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.04296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.6640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.19921875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="29.30859375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -1326,7 +1175,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="206.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.22265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1335,24 +1184,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.25390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="41.86328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="38.34765625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.65234375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="29.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.98828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="159.4140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1470,6 +1320,9 @@
       <c r="AL1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
@@ -1480,14 +1333,14 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>20</v>
@@ -1499,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1559,30 +1412,33 @@
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1590,10 +1446,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>20</v>
@@ -1602,19 +1458,19 @@
         <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1664,13 +1520,13 @@
         <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>20</v>
@@ -1682,15 +1538,18 @@
         <v>20</v>
       </c>
       <c r="AL3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM3" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1698,10 +1557,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>20</v>
@@ -1710,16 +1569,16 @@
         <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1770,33 +1629,36 @@
         <v>20</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM4" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1804,31 +1666,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1878,33 +1740,36 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM5" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1912,10 +1777,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>20</v>
@@ -1927,16 +1792,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1962,13 +1827,13 @@
         <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>20</v>
@@ -1986,44 +1851,47 @@
         <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM6" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>20</v>
@@ -2035,16 +1903,16 @@
         <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2094,44 +1962,47 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AM7" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>20</v>
@@ -2143,16 +2014,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2202,13 +2073,13 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>20</v>
@@ -2217,18 +2088,21 @@
         <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM8" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2236,10 +2110,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>20</v>
@@ -2251,13 +2125,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2296,56 +2170,59 @@
         <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM9" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>20</v>
@@ -2357,13 +2234,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2414,46 +2291,49 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM10" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>20</v>
@@ -2465,13 +2345,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2522,46 +2402,49 @@
         <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>20</v>
@@ -2573,13 +2456,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2630,46 +2513,49 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
@@ -2681,13 +2567,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2738,67 +2624,72 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
       </c>
@@ -2846,69 +2737,68 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>141</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -2956,33 +2846,36 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>127</v>
+        <v>170</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>20</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>171</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2990,30 +2883,32 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>106</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3038,13 +2933,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3062,33 +2957,36 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>20</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>179</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3096,32 +2994,30 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>178</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3131,7 +3027,7 @@
         <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>179</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>20</v>
@@ -3146,57 +3042,60 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Y17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>183</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>184</v>
+        <v>20</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3204,35 +3103,31 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>20</v>
       </c>
@@ -3241,7 +3136,7 @@
         <v>20</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>20</v>
@@ -3256,13 +3151,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>180</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -3280,44 +3175,47 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AG18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>194</v>
+      <c r="AM18" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>20</v>
@@ -3326,21 +3224,21 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -3352,7 +3250,7 @@
         <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>20</v>
@@ -3388,68 +3286,71 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AM19" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>207</v>
+        <v>164</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -3459,7 +3360,7 @@
         <v>20</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>208</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
         <v>20</v>
@@ -3474,13 +3375,13 @@
         <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>20</v>
@@ -3498,33 +3399,36 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>212</v>
+        <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>129</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3532,10 +3436,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>20</v>
@@ -3544,23 +3448,19 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>106</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -3584,13 +3484,13 @@
         <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>20</v>
@@ -3608,33 +3508,36 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>220</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>221</v>
+        <v>20</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3642,10 +3545,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -3657,13 +3560,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3714,33 +3617,36 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>20</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3748,10 +3654,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -3760,23 +3666,21 @@
         <v>20</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
       </c>
@@ -3785,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>20</v>
+        <v>208</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>20</v>
@@ -3800,13 +3704,13 @@
         <v>20</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>20</v>
+        <v>209</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>20</v>
@@ -3824,44 +3728,47 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>20</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>213</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -3870,23 +3777,19 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -3934,33 +3837,36 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>239</v>
+        <v>20</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3968,10 +3874,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>20</v>
@@ -3983,20 +3889,16 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -4020,13 +3922,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>245</v>
+        <v>20</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4044,44 +3946,47 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>240</v>
+        <v>186</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AI25" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>20</v>
@@ -4093,15 +3998,17 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4150,67 +4057,72 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>190</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>84</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>163</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
       </c>
@@ -4258,33 +4170,36 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>259</v>
+        <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4292,10 +4207,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>20</v>
@@ -4304,16 +4219,16 @@
         <v>20</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4364,44 +4279,47 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>223</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>20</v>
@@ -4410,20 +4328,18 @@
         <v>20</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>129</v>
+        <v>204</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -4448,13 +4364,13 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>20</v>
+        <v>227</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -4472,69 +4388,68 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>224</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>264</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>20</v>
       </c>
@@ -4582,33 +4497,36 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" hidden="true">
+      <c r="AM30" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4616,35 +4534,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -4668,13 +4582,13 @@
         <v>20</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>20</v>
@@ -4692,33 +4606,36 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>193</v>
+        <v>237</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4726,41 +4643,35 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>173</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="Q32" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
         <v>20</v>
       </c>
@@ -4804,33 +4715,36 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" hidden="true">
+      <c r="AM32" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4838,33 +4752,31 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
       </c>
@@ -4912,33 +4824,36 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>246</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4946,10 +4861,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>20</v>
@@ -4961,13 +4876,13 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>173</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5018,33 +4933,36 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>299</v>
+        <v>249</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5052,10 +4970,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>20</v>
@@ -5067,20 +4985,16 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>301</v>
+        <v>173</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>20</v>
       </c>
@@ -5104,13 +5018,13 @@
         <v>20</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>305</v>
+        <v>20</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>306</v>
+        <v>20</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -5128,29 +5042,252 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>307</v>
+        <v>241</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>20</v>
       </c>
+      <c r="AM35" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL35">
+  <autoFilter ref="A1:AM37">
     <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5160,7 +5297,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI34">
+  <conditionalFormatting sqref="A2:AI36">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,7 +270,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-lin-req-1:The subject element is required and must be provided. {subject.exists()}o-lin-req-2:The period element is required and must be provided. {period.exists()}o-lin-req-3:The therapyLineNumber extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number').exists()}o-lin-req-4:The therapyLineIntent extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent').exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}o-lin-req-1:The patient element is required and must be provided. {patient.exists()}o-lin-req-2:The period element is required and must be provided. {period.exists()}o-lin-req-3:The therapyLineNumber extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-number').exists()}o-lin-req-4:The therapyLineIntent extension is required and must be provided. {extension('http://onconova.github.io/fhir/StructureDefinition/onconova-ext-therapy-line-intent').exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-therapy-line.xlsx
+++ b/StructureDefinition-onconova-therapy-line.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
